--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43025,6 +43025,41 @@
         <v>67900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>246900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43060,6 +43060,41 @@
         <v>246900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>233300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43095,6 +43095,41 @@
         <v>233300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>67500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43130,6 +43130,41 @@
         <v>67500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>116600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43165,6 +43165,41 @@
         <v>116600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>48100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43200,6 +43200,41 @@
         <v>48100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>369700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43235,6 +43235,41 @@
         <v>369700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>293500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43270,6 +43270,41 @@
         <v>293500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>53700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43305,6 +43305,41 @@
         <v>53700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>783700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43340,6 +43340,41 @@
         <v>783700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>227000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43375,6 +43375,41 @@
         <v>227000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>150200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43410,6 +43410,41 @@
         <v>150200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>175900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43445,6 +43445,76 @@
         <v>175900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>898500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>266700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43515,6 +43515,76 @@
         <v>266700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>108200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>141700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43585,6 +43585,41 @@
         <v>141700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>86000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43620,6 +43620,41 @@
         <v>86000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>238900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43655,6 +43655,41 @@
         <v>238900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>46500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43690,6 +43690,41 @@
         <v>46500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>255800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43725,6 +43725,76 @@
         <v>255800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>80300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43795,6 +43795,41 @@
         <v>80300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>205400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43830,6 +43830,41 @@
         <v>205400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>122900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2183"/>
+  <dimension ref="A1:I2184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76835,6 +76835,41 @@
         <v>122900</v>
       </c>
     </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>541300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2184"/>
+  <dimension ref="A1:I2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76870,6 +76870,41 @@
         <v>541300</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>197700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2185"/>
+  <dimension ref="A1:I2186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76905,6 +76905,41 @@
         <v>197700</v>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>150500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2186"/>
+  <dimension ref="A1:I2187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76940,6 +76940,41 @@
         <v>150500</v>
       </c>
     </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>149800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2187"/>
+  <dimension ref="A1:I2188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76975,6 +76975,41 @@
         <v>149800</v>
       </c>
     </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2188"/>
+  <dimension ref="A1:I2189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77010,6 +77010,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2189"/>
+  <dimension ref="A1:I2190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77045,6 +77045,41 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>37400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2190"/>
+  <dimension ref="A1:I2191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77080,6 +77080,41 @@
         <v>37400</v>
       </c>
     </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>152900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2191"/>
+  <dimension ref="A1:I2192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77115,6 +77115,41 @@
         <v>152900</v>
       </c>
     </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>17500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2192"/>
+  <dimension ref="A1:I2193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77150,6 +77150,41 @@
         <v>17500</v>
       </c>
     </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I2193" t="n">
+        <v>89300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2193"/>
+  <dimension ref="A1:I2194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77185,6 +77185,41 @@
         <v>89300</v>
       </c>
     </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>34100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2194"/>
+  <dimension ref="A1:I2195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77220,6 +77220,41 @@
         <v>34100</v>
       </c>
     </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>25800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2195"/>
+  <dimension ref="A1:I2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77255,6 +77255,41 @@
         <v>25800</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>40500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2196"/>
+  <dimension ref="A1:I2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77290,6 +77290,41 @@
         <v>40500</v>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2197" t="n">
+        <v>33200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2197"/>
+  <dimension ref="A1:I2198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77325,6 +77325,41 @@
         <v>33200</v>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90240,6 +90240,41 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2567" t="n">
+        <v>30300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90275,6 +90275,41 @@
         <v>30300</v>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>51400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2568"/>
+  <dimension ref="A1:I2569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90310,6 +90310,41 @@
         <v>51400</v>
       </c>
     </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2569"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90345,6 +90345,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I2570" t="n">
+        <v>6100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2570"/>
+  <dimension ref="A1:I2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90380,6 +90380,41 @@
         <v>6100</v>
       </c>
     </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H2571" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I2571" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90415,6 +90415,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I2572" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2572"/>
+  <dimension ref="A1:I2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90452,6 +90452,41 @@
         </is>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2573" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2573" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2573"/>
+  <dimension ref="A1:I2574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90487,6 +90487,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2574" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2574" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2574" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2574" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2574"/>
+  <dimension ref="A1:I2575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90522,6 +90522,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2575" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2575" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2575" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2575" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2575"/>
+  <dimension ref="A1:I2576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90557,6 +90557,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2576" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2576" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H2576" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2576" t="n">
+        <v>49900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2576"/>
+  <dimension ref="A1:I2578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90592,6 +90592,76 @@
         <v>49900</v>
       </c>
     </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2577" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2577" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G2577" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H2577" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2577" t="n">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2578" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F2578" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G2578" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2578" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2578" t="n">
+        <v>24500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2578"/>
+  <dimension ref="A1:I2579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90662,6 +90662,41 @@
         <v>24500</v>
       </c>
     </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2579" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F2579" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G2579" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H2579" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I2579" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2579"/>
+  <dimension ref="A1:I2582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90697,6 +90697,111 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="2580">
+      <c r="A2580" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2580" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2580" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2580" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2580" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I2580" t="n">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2581" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2581" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2581" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2581" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2581" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2582" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2582" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2582" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2582" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2582" t="n">
+        <v>6100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2582"/>
+  <dimension ref="A1:I2583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90802,6 +90802,41 @@
         <v>6100</v>
       </c>
     </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2583" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2583" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2583" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2583" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2583" t="n">
+        <v>19700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2583"/>
+  <dimension ref="A1:I2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90837,6 +90837,41 @@
         <v>19700</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2584" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H2584" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2584" t="n">
+        <v>14200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0104.xlsx
+++ b/data/0104.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2584"/>
+  <dimension ref="A1:I2587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90872,6 +90872,111 @@
         <v>14200</v>
       </c>
     </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2585" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2585" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2585" t="n">
+        <v>89300</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2586" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2586" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2586" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H2586" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2586" t="n">
+        <v>27100</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>GENETEC</t>
+        </is>
+      </c>
+      <c r="E2587" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2587" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2587" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2587" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2587" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
